--- a/data/DMBD_DATA.xlsx
+++ b/data/DMBD_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potap\Documents\GitHub\DMBD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F6D8F-60D0-466C-B90B-DCE0661F28F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE586D7-2C34-4BA2-B9EF-8665074CF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="339">
   <si>
     <t>name</t>
   </si>
@@ -1027,10 +1027,22 @@
     <t>portrait</t>
   </si>
   <si>
-    <t>box_orientation</t>
-  </si>
-  <si>
     <t>column</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,12 +1106,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1107,46 +1122,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1446,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J235" sqref="J235"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1458,11 +1433,11 @@
     <col min="1" max="1" width="5.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4609375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>329</v>
       </c>
@@ -1473,19 +1448,31 @@
         <v>330</v>
       </c>
       <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
         <v>331</v>
-      </c>
-      <c r="E1" t="s">
-        <v>333</v>
       </c>
       <c r="F1" t="s">
         <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+      <c r="H1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1507,8 +1494,12 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <f>A3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1531,8 +1522,16 @@
         <f>G2+6</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>A4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1555,8 +1554,16 @@
         <f t="shared" ref="G4:G45" si="0">G3+6</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <f t="shared" ref="H4:H45" si="1">A3</f>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I44" si="2">A5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1579,8 +1586,16 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1603,8 +1618,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1627,8 +1650,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1651,8 +1682,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1675,8 +1714,16 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1699,8 +1746,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1723,8 +1778,16 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1747,8 +1810,16 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1771,8 +1842,16 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1795,8 +1874,16 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1819,8 +1906,16 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1843,8 +1938,16 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1867,8 +1970,16 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1891,8 +2002,16 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1915,8 +2034,16 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1939,8 +2066,16 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1963,8 +2098,16 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1987,8 +2130,16 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2011,8 +2162,16 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2035,8 +2194,16 @@
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2059,8 +2226,16 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2083,8 +2258,16 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2107,8 +2290,16 @@
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2131,8 +2322,16 @@
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2155,8 +2354,16 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2179,8 +2386,16 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2203,8 +2418,16 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2227,8 +2450,16 @@
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2251,8 +2482,16 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2275,8 +2514,16 @@
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2299,8 +2546,16 @@
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2323,8 +2578,16 @@
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2347,8 +2610,16 @@
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2371,8 +2642,16 @@
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2395,8 +2674,16 @@
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2419,8 +2706,16 @@
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2443,8 +2738,16 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2467,8 +2770,16 @@
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2491,8 +2802,16 @@
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2515,8 +2834,16 @@
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2539,8 +2866,15 @@
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2560,11 +2894,18 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G86" si="1">G47+6</f>
+        <f t="shared" ref="G46:G86" si="3">G47+6</f>
         <v>259</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46">
+        <f>A47</f>
+        <v>46</v>
+      </c>
+      <c r="K46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2584,11 +2925,19 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47">
+        <f>A48</f>
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <f>A46</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2608,11 +2957,19 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48">
+        <f t="shared" ref="H48:H87" si="4">A49</f>
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I88" si="5">A47</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2632,11 +2989,19 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2656,11 +3021,19 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2680,11 +3053,19 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2704,11 +3085,19 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2718,21 +3107,29 @@
       <c r="C53" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D53" t="s">
-        <v>332</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>332</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2742,21 +3139,29 @@
       <c r="C54" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D54" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>174</v>
+      </c>
+      <c r="E54" t="s">
+        <v>332</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2776,11 +3181,19 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2800,11 +3213,19 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2824,11 +3245,19 @@
         <v>2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2848,11 +3277,19 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2872,11 +3309,19 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2896,11 +3341,19 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2920,11 +3373,19 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2944,11 +3405,19 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2968,11 +3437,19 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2992,11 +3469,19 @@
         <v>2</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3006,8 +3491,8 @@
       <c r="C65">
         <v>2013</v>
       </c>
-      <c r="D65" t="s">
-        <v>332</v>
+      <c r="D65" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E65" t="s">
         <v>332</v>
@@ -3016,11 +3501,19 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3030,21 +3523,29 @@
       <c r="C66">
         <v>2013</v>
       </c>
-      <c r="D66" t="s">
-        <v>332</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="4" t="s">
         <v>174</v>
+      </c>
+      <c r="E66" t="s">
+        <v>332</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3057,18 +3558,26 @@
       <c r="D67" t="s">
         <v>332</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>174</v>
+      <c r="E67" t="s">
+        <v>332</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3088,11 +3597,19 @@
         <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3112,11 +3629,19 @@
         <v>2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3136,11 +3661,19 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3160,11 +3693,19 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3184,11 +3725,19 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3208,11 +3757,19 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3232,11 +3789,19 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H74">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3256,11 +3821,19 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3280,11 +3853,19 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H76">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3304,11 +3885,19 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H77">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3328,11 +3917,19 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H78">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3352,11 +3949,19 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H79">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3376,11 +3981,19 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H80">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3400,11 +4013,19 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H81">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3424,11 +4045,19 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H82">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3448,11 +4077,19 @@
         <v>2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H83">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3472,11 +4109,19 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H84">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3496,11 +4141,19 @@
         <v>2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H85">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3520,11 +4173,19 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H86">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3547,8 +4208,16 @@
         <f>G88+6</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H87">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3571,8 +4240,15 @@
         <f>6+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3595,8 +4271,15 @@
         <f>3+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I89">
+        <f>A90</f>
+        <v>89</v>
+      </c>
+      <c r="K89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3619,8 +4302,16 @@
         <f>G89+6</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H90">
+        <f>A89</f>
+        <v>88</v>
+      </c>
+      <c r="I90">
+        <f>A91</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3640,11 +4331,19 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91:G131" si="2">G90+6</f>
+        <f t="shared" ref="G91:G131" si="6">G90+6</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H91">
+        <f t="shared" ref="H91:H131" si="7">A90</f>
+        <v>89</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ref="I91:I130" si="8">A92</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3664,11 +4363,19 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3688,11 +4395,19 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3712,11 +4427,19 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3736,11 +4459,19 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3760,11 +4491,19 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3784,11 +4523,19 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3808,11 +4555,19 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3832,11 +4587,19 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3856,11 +4619,19 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3880,11 +4651,19 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3904,11 +4683,19 @@
         <v>3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3928,11 +4715,19 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3952,11 +4747,19 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3976,11 +4779,19 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4000,11 +4811,19 @@
         <v>3</v>
       </c>
       <c r="G106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4024,11 +4843,19 @@
         <v>3</v>
       </c>
       <c r="G107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4048,11 +4875,19 @@
         <v>3</v>
       </c>
       <c r="G108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4072,11 +4907,19 @@
         <v>3</v>
       </c>
       <c r="G109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4096,11 +4939,19 @@
         <v>3</v>
       </c>
       <c r="G110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4120,11 +4971,19 @@
         <v>3</v>
       </c>
       <c r="G111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4144,11 +5003,19 @@
         <v>3</v>
       </c>
       <c r="G112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H112">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4168,11 +5035,19 @@
         <v>3</v>
       </c>
       <c r="G113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H113">
+        <f t="shared" si="7"/>
+        <v>111</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4192,11 +5067,19 @@
         <v>3</v>
       </c>
       <c r="G114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4216,11 +5099,19 @@
         <v>3</v>
       </c>
       <c r="G115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H115">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4240,11 +5131,19 @@
         <v>3</v>
       </c>
       <c r="G116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4264,11 +5163,19 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H117">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4288,11 +5195,19 @@
         <v>3</v>
       </c>
       <c r="G118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4312,11 +5227,19 @@
         <v>3</v>
       </c>
       <c r="G119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H119">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4336,11 +5259,19 @@
         <v>3</v>
       </c>
       <c r="G120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H120">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4360,11 +5291,19 @@
         <v>3</v>
       </c>
       <c r="G121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H121">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4384,11 +5323,19 @@
         <v>3</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H122">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4408,11 +5355,19 @@
         <v>3</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H123">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4432,11 +5387,19 @@
         <v>3</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H124">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4456,11 +5419,19 @@
         <v>3</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H125">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4480,11 +5451,19 @@
         <v>3</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H126">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4504,11 +5483,19 @@
         <v>3</v>
       </c>
       <c r="G127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H127">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4528,11 +5515,19 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H128">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4552,11 +5547,19 @@
         <v>3</v>
       </c>
       <c r="G129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H129">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="8"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4576,11 +5579,19 @@
         <v>3</v>
       </c>
       <c r="G130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H130">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4600,11 +5611,18 @@
         <v>3</v>
       </c>
       <c r="G131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H131">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="J131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4624,11 +5642,18 @@
         <v>4</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G172" si="3">G133+6</f>
+        <f t="shared" ref="G132:G172" si="9">G133+6</f>
         <v>259</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H132">
+        <f>A133</f>
+        <v>132</v>
+      </c>
+      <c r="K132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4648,11 +5673,19 @@
         <v>4</v>
       </c>
       <c r="G133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H133">
+        <f>A134</f>
+        <v>133</v>
+      </c>
+      <c r="I133">
+        <f>A132</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4672,11 +5705,19 @@
         <v>4</v>
       </c>
       <c r="G134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H134">
+        <f t="shared" ref="H134:H173" si="10">A135</f>
+        <v>134</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ref="I134:I174" si="11">A133</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4696,11 +5737,19 @@
         <v>4</v>
       </c>
       <c r="G135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H135">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="11"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4720,11 +5769,19 @@
         <v>4</v>
       </c>
       <c r="G136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H136">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="11"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4744,11 +5801,19 @@
         <v>4</v>
       </c>
       <c r="G137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H137">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4768,11 +5833,19 @@
         <v>4</v>
       </c>
       <c r="G138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H138">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4792,11 +5865,19 @@
         <v>4</v>
       </c>
       <c r="G139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H139">
+        <f t="shared" si="10"/>
+        <v>139</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4816,11 +5897,19 @@
         <v>4</v>
       </c>
       <c r="G140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H140">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="11"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4840,11 +5929,19 @@
         <v>4</v>
       </c>
       <c r="G141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H141">
+        <f t="shared" si="10"/>
+        <v>141</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="11"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4864,11 +5961,19 @@
         <v>4</v>
       </c>
       <c r="G142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H142">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4888,11 +5993,19 @@
         <v>4</v>
       </c>
       <c r="G143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H143">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4912,11 +6025,19 @@
         <v>4</v>
       </c>
       <c r="G144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H144">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4936,11 +6057,19 @@
         <v>4</v>
       </c>
       <c r="G145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H145">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4960,11 +6089,19 @@
         <v>4</v>
       </c>
       <c r="G146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H146">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4984,11 +6121,19 @@
         <v>4</v>
       </c>
       <c r="G147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H147">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5008,11 +6153,19 @@
         <v>4</v>
       </c>
       <c r="G148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H148">
+        <f t="shared" si="10"/>
+        <v>148</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5032,11 +6185,19 @@
         <v>4</v>
       </c>
       <c r="G149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H149">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="11"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5056,11 +6217,19 @@
         <v>4</v>
       </c>
       <c r="G150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H150">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="11"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5080,11 +6249,19 @@
         <v>4</v>
       </c>
       <c r="G151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H151">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5104,11 +6281,19 @@
         <v>4</v>
       </c>
       <c r="G152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H152">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5128,11 +6313,19 @@
         <v>4</v>
       </c>
       <c r="G153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H153">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="11"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5152,11 +6345,19 @@
         <v>4</v>
       </c>
       <c r="G154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H154">
+        <f t="shared" si="10"/>
+        <v>154</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5176,11 +6377,19 @@
         <v>4</v>
       </c>
       <c r="G155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H155">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="11"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5200,11 +6409,19 @@
         <v>4</v>
       </c>
       <c r="G156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H156">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5224,11 +6441,19 @@
         <v>4</v>
       </c>
       <c r="G157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H157">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5248,11 +6473,19 @@
         <v>4</v>
       </c>
       <c r="G158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H158">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5272,11 +6505,19 @@
         <v>4</v>
       </c>
       <c r="G159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H159">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5296,11 +6537,19 @@
         <v>4</v>
       </c>
       <c r="G160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H160">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5320,11 +6569,19 @@
         <v>4</v>
       </c>
       <c r="G161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H161">
+        <f t="shared" si="10"/>
+        <v>161</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="11"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5344,11 +6601,19 @@
         <v>4</v>
       </c>
       <c r="G162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H162">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5368,11 +6633,19 @@
         <v>4</v>
       </c>
       <c r="G163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H163">
+        <f t="shared" si="10"/>
+        <v>163</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5392,11 +6665,19 @@
         <v>4</v>
       </c>
       <c r="G164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H164">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5416,11 +6697,19 @@
         <v>4</v>
       </c>
       <c r="G165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H165">
+        <f t="shared" si="10"/>
+        <v>165</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="11"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5440,11 +6729,19 @@
         <v>4</v>
       </c>
       <c r="G166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H166">
+        <f t="shared" si="10"/>
+        <v>166</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5464,11 +6761,19 @@
         <v>4</v>
       </c>
       <c r="G167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H167">
+        <f t="shared" si="10"/>
+        <v>167</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5478,21 +6783,29 @@
       <c r="C168">
         <v>2017</v>
       </c>
-      <c r="D168" t="s">
-        <v>332</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="D168" s="4" t="s">
         <v>174</v>
+      </c>
+      <c r="E168" t="s">
+        <v>332</v>
       </c>
       <c r="F168">
         <v>4</v>
       </c>
       <c r="G168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H168">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="11"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5512,11 +6825,19 @@
         <v>4</v>
       </c>
       <c r="G169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H169">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5536,11 +6857,19 @@
         <v>4</v>
       </c>
       <c r="G170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H170">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5560,11 +6889,19 @@
         <v>4</v>
       </c>
       <c r="G171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H171">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5584,11 +6921,19 @@
         <v>4</v>
       </c>
       <c r="G172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H172">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5611,8 +6956,16 @@
         <f>G174+6</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H173">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="11"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5635,8 +6988,15 @@
         <f>6+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I174">
+        <f t="shared" si="11"/>
+        <v>172</v>
+      </c>
+      <c r="J174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5659,8 +7019,15 @@
         <f>3+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I175">
+        <f>A176</f>
+        <v>175</v>
+      </c>
+      <c r="K175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5683,8 +7050,16 @@
         <f>G175+6</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H176">
+        <f>A175</f>
+        <v>174</v>
+      </c>
+      <c r="I176">
+        <f>A177</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5704,11 +7079,19 @@
         <v>5</v>
       </c>
       <c r="G177">
-        <f t="shared" ref="G177:G218" si="4">G176+6</f>
+        <f t="shared" ref="G177:G218" si="12">G176+6</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H177">
+        <f t="shared" ref="H177:H218" si="13">A176</f>
+        <v>175</v>
+      </c>
+      <c r="I177">
+        <f t="shared" ref="I177:I217" si="14">A178</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5728,11 +7111,19 @@
         <v>5</v>
       </c>
       <c r="G178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H178">
+        <f t="shared" si="13"/>
+        <v>176</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="14"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5752,11 +7143,19 @@
         <v>5</v>
       </c>
       <c r="G179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H179">
+        <f t="shared" si="13"/>
+        <v>177</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5776,11 +7175,19 @@
         <v>5</v>
       </c>
       <c r="G180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H180">
+        <f t="shared" si="13"/>
+        <v>178</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5800,11 +7207,19 @@
         <v>5</v>
       </c>
       <c r="G181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H181">
+        <f t="shared" si="13"/>
+        <v>179</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5824,11 +7239,19 @@
         <v>5</v>
       </c>
       <c r="G182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H182">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5848,11 +7271,19 @@
         <v>5</v>
       </c>
       <c r="G183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H183">
+        <f t="shared" si="13"/>
+        <v>181</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="14"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5872,11 +7303,19 @@
         <v>5</v>
       </c>
       <c r="G184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H184">
+        <f t="shared" si="13"/>
+        <v>182</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5896,11 +7335,19 @@
         <v>5</v>
       </c>
       <c r="G185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H185">
+        <f t="shared" si="13"/>
+        <v>183</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5920,11 +7367,19 @@
         <v>5</v>
       </c>
       <c r="G186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H186">
+        <f t="shared" si="13"/>
+        <v>184</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5944,11 +7399,19 @@
         <v>5</v>
       </c>
       <c r="G187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H187">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5968,11 +7431,19 @@
         <v>5</v>
       </c>
       <c r="G188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H188">
+        <f t="shared" si="13"/>
+        <v>186</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5992,11 +7463,19 @@
         <v>5</v>
       </c>
       <c r="G189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H189">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6016,11 +7495,19 @@
         <v>5</v>
       </c>
       <c r="G190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H190">
+        <f t="shared" si="13"/>
+        <v>188</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6040,11 +7527,19 @@
         <v>5</v>
       </c>
       <c r="G191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H191">
+        <f t="shared" si="13"/>
+        <v>189</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6064,11 +7559,19 @@
         <v>5</v>
       </c>
       <c r="G192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H192">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6088,11 +7591,19 @@
         <v>5</v>
       </c>
       <c r="G193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H193">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6112,11 +7623,19 @@
         <v>5</v>
       </c>
       <c r="G194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H194">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6136,11 +7655,19 @@
         <v>5</v>
       </c>
       <c r="G195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H195">
+        <f t="shared" si="13"/>
+        <v>193</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6160,11 +7687,19 @@
         <v>5</v>
       </c>
       <c r="G196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H196">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6184,11 +7719,19 @@
         <v>5</v>
       </c>
       <c r="G197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H197">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6208,11 +7751,19 @@
         <v>5</v>
       </c>
       <c r="G198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H198">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6232,11 +7783,19 @@
         <v>5</v>
       </c>
       <c r="G199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H199">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6256,11 +7815,19 @@
         <v>5</v>
       </c>
       <c r="G200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H200">
+        <f t="shared" si="13"/>
+        <v>198</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6280,11 +7847,19 @@
         <v>5</v>
       </c>
       <c r="G201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H201">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6304,11 +7879,19 @@
         <v>5</v>
       </c>
       <c r="G202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H202">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6328,11 +7911,19 @@
         <v>5</v>
       </c>
       <c r="G203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>172</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H203">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6352,11 +7943,19 @@
         <v>5</v>
       </c>
       <c r="G204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H204">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6376,11 +7975,19 @@
         <v>5</v>
       </c>
       <c r="G205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H205">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6400,11 +8007,19 @@
         <v>5</v>
       </c>
       <c r="G206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H206">
+        <f t="shared" si="13"/>
+        <v>204</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6424,11 +8039,19 @@
         <v>5</v>
       </c>
       <c r="G207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H207">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6448,11 +8071,19 @@
         <v>5</v>
       </c>
       <c r="G208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H208">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6472,11 +8103,19 @@
         <v>5</v>
       </c>
       <c r="G209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H209">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6496,11 +8135,19 @@
         <v>5</v>
       </c>
       <c r="G210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H210">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6520,11 +8167,19 @@
         <v>5</v>
       </c>
       <c r="G211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H211">
+        <f t="shared" si="13"/>
+        <v>209</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6544,11 +8199,19 @@
         <v>5</v>
       </c>
       <c r="G212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H212">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6568,11 +8231,19 @@
         <v>5</v>
       </c>
       <c r="G213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H213">
+        <f t="shared" si="13"/>
+        <v>211</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6582,21 +8253,29 @@
       <c r="C214">
         <v>2018</v>
       </c>
-      <c r="D214" t="s">
-        <v>332</v>
-      </c>
-      <c r="E214" s="1" t="s">
+      <c r="D214" s="4" t="s">
         <v>174</v>
+      </c>
+      <c r="E214" t="s">
+        <v>332</v>
       </c>
       <c r="F214">
         <v>5</v>
       </c>
       <c r="G214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H214">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="14"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6616,11 +8295,19 @@
         <v>5</v>
       </c>
       <c r="G215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H215">
+        <f t="shared" si="13"/>
+        <v>213</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6640,11 +8327,19 @@
         <v>5</v>
       </c>
       <c r="G216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H216">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6664,11 +8359,19 @@
         <v>5</v>
       </c>
       <c r="G217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H217">
+        <f t="shared" si="13"/>
+        <v>215</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6688,11 +8391,18 @@
         <v>5</v>
       </c>
       <c r="G218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H218">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+      <c r="J218">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6712,11 +8422,18 @@
         <v>6</v>
       </c>
       <c r="G219">
-        <f t="shared" ref="G219:G259" si="5">G220+6</f>
+        <f t="shared" ref="G219:G259" si="15">G220+6</f>
         <v>259</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H219">
+        <f>A220</f>
+        <v>219</v>
+      </c>
+      <c r="K219">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6736,11 +8453,19 @@
         <v>6</v>
       </c>
       <c r="G220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H220">
+        <f>A221</f>
+        <v>220</v>
+      </c>
+      <c r="I220">
+        <f>A219</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6760,11 +8485,19 @@
         <v>6</v>
       </c>
       <c r="G221">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H221">
+        <f t="shared" ref="H221:H260" si="16">A222</f>
+        <v>221</v>
+      </c>
+      <c r="I221">
+        <f t="shared" ref="I221:I261" si="17">A220</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6784,11 +8517,19 @@
         <v>6</v>
       </c>
       <c r="G222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H222">
+        <f t="shared" si="16"/>
+        <v>222</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6808,11 +8549,19 @@
         <v>6</v>
       </c>
       <c r="G223">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H223">
+        <f t="shared" si="16"/>
+        <v>223</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="17"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6832,11 +8581,19 @@
         <v>6</v>
       </c>
       <c r="G224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H224">
+        <f t="shared" si="16"/>
+        <v>224</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="17"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6856,11 +8613,19 @@
         <v>6</v>
       </c>
       <c r="G225">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H225">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="17"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6880,11 +8645,19 @@
         <v>6</v>
       </c>
       <c r="G226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H226">
+        <f t="shared" si="16"/>
+        <v>226</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6904,11 +8677,19 @@
         <v>6</v>
       </c>
       <c r="G227">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H227">
+        <f t="shared" si="16"/>
+        <v>227</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="17"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6928,11 +8709,19 @@
         <v>6</v>
       </c>
       <c r="G228">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H228">
+        <f t="shared" si="16"/>
+        <v>228</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="17"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6952,11 +8741,19 @@
         <v>6</v>
       </c>
       <c r="G229">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H229">
+        <f t="shared" si="16"/>
+        <v>229</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="17"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6976,11 +8773,19 @@
         <v>6</v>
       </c>
       <c r="G230">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H230">
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="17"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7000,11 +8805,19 @@
         <v>6</v>
       </c>
       <c r="G231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H231">
+        <f t="shared" si="16"/>
+        <v>231</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="17"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7024,11 +8837,19 @@
         <v>6</v>
       </c>
       <c r="G232">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H232">
+        <f t="shared" si="16"/>
+        <v>232</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="17"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7048,11 +8869,19 @@
         <v>6</v>
       </c>
       <c r="G233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H233">
+        <f t="shared" si="16"/>
+        <v>233</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="17"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7072,11 +8901,19 @@
         <v>6</v>
       </c>
       <c r="G234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H234">
+        <f t="shared" si="16"/>
+        <v>234</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="17"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7096,11 +8933,19 @@
         <v>6</v>
       </c>
       <c r="G235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H235">
+        <f t="shared" si="16"/>
+        <v>235</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="17"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7120,11 +8965,19 @@
         <v>6</v>
       </c>
       <c r="G236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H236">
+        <f t="shared" si="16"/>
+        <v>236</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="17"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7144,11 +8997,19 @@
         <v>6</v>
       </c>
       <c r="G237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H237">
+        <f t="shared" si="16"/>
+        <v>237</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="17"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7168,11 +9029,19 @@
         <v>6</v>
       </c>
       <c r="G238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H238">
+        <f t="shared" si="16"/>
+        <v>238</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="17"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7192,11 +9061,19 @@
         <v>6</v>
       </c>
       <c r="G239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H239">
+        <f t="shared" si="16"/>
+        <v>239</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="17"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7216,11 +9093,19 @@
         <v>6</v>
       </c>
       <c r="G240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H240">
+        <f t="shared" si="16"/>
+        <v>240</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="17"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7240,11 +9125,19 @@
         <v>6</v>
       </c>
       <c r="G241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H241">
+        <f t="shared" si="16"/>
+        <v>241</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="17"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7264,11 +9157,19 @@
         <v>6</v>
       </c>
       <c r="G242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H242">
+        <f t="shared" si="16"/>
+        <v>242</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="17"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7288,11 +9189,19 @@
         <v>6</v>
       </c>
       <c r="G243">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H243">
+        <f t="shared" si="16"/>
+        <v>243</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="17"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7312,11 +9221,19 @@
         <v>6</v>
       </c>
       <c r="G244">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H244">
+        <f t="shared" si="16"/>
+        <v>244</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="17"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7336,11 +9253,19 @@
         <v>6</v>
       </c>
       <c r="G245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H245">
+        <f t="shared" si="16"/>
+        <v>245</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="17"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7360,11 +9285,19 @@
         <v>6</v>
       </c>
       <c r="G246">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H246">
+        <f t="shared" si="16"/>
+        <v>246</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="17"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7384,11 +9317,19 @@
         <v>6</v>
       </c>
       <c r="G247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H247">
+        <f t="shared" si="16"/>
+        <v>247</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="17"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7408,11 +9349,19 @@
         <v>6</v>
       </c>
       <c r="G248">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H248">
+        <f t="shared" si="16"/>
+        <v>248</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="17"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7432,11 +9381,19 @@
         <v>6</v>
       </c>
       <c r="G249">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H249">
+        <f t="shared" si="16"/>
+        <v>249</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="17"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7456,11 +9413,19 @@
         <v>6</v>
       </c>
       <c r="G250">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H250">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="17"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7480,11 +9445,19 @@
         <v>6</v>
       </c>
       <c r="G251">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H251">
+        <f t="shared" si="16"/>
+        <v>251</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="17"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7504,11 +9477,19 @@
         <v>6</v>
       </c>
       <c r="G252">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H252">
+        <f t="shared" si="16"/>
+        <v>252</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7528,11 +9509,19 @@
         <v>6</v>
       </c>
       <c r="G253">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H253">
+        <f t="shared" si="16"/>
+        <v>253</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="17"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7552,11 +9541,19 @@
         <v>6</v>
       </c>
       <c r="G254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H254">
+        <f t="shared" si="16"/>
+        <v>254</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="17"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7576,11 +9573,19 @@
         <v>6</v>
       </c>
       <c r="G255">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H255">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="17"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7600,11 +9605,19 @@
         <v>6</v>
       </c>
       <c r="G256">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H256">
+        <f t="shared" si="16"/>
+        <v>256</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="17"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7624,11 +9637,19 @@
         <v>6</v>
       </c>
       <c r="G257">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H257">
+        <f t="shared" si="16"/>
+        <v>257</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="17"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7648,11 +9669,19 @@
         <v>6</v>
       </c>
       <c r="G258">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H258">
+        <f t="shared" si="16"/>
+        <v>258</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="17"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7672,11 +9701,19 @@
         <v>6</v>
       </c>
       <c r="G259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H259">
+        <f t="shared" si="16"/>
+        <v>259</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="17"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7699,8 +9736,16 @@
         <f>G261+6</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H260">
+        <f t="shared" si="16"/>
+        <v>260</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="17"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7723,8 +9768,15 @@
         <f>6+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I261">
+        <f t="shared" si="17"/>
+        <v>259</v>
+      </c>
+      <c r="J261">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7747,8 +9799,15 @@
         <f>3+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I262">
+        <f>A263</f>
+        <v>262</v>
+      </c>
+      <c r="K262">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7771,8 +9830,16 @@
         <f>G262+6</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H263">
+        <f>A262</f>
+        <v>261</v>
+      </c>
+      <c r="I263">
+        <f>A264</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7792,11 +9859,19 @@
         <v>7</v>
       </c>
       <c r="G264">
-        <f t="shared" ref="G264:G305" si="6">G263+6</f>
+        <f t="shared" ref="G264:G305" si="18">G263+6</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H264">
+        <f t="shared" ref="H264:H305" si="19">A263</f>
+        <v>262</v>
+      </c>
+      <c r="I264">
+        <f t="shared" ref="I264:I304" si="20">A265</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7816,11 +9891,19 @@
         <v>7</v>
       </c>
       <c r="G265">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H265">
+        <f t="shared" si="19"/>
+        <v>263</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="20"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7840,11 +9923,19 @@
         <v>7</v>
       </c>
       <c r="G266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H266">
+        <f t="shared" si="19"/>
+        <v>264</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="20"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7864,11 +9955,19 @@
         <v>7</v>
       </c>
       <c r="G267">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H267">
+        <f t="shared" si="19"/>
+        <v>265</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="20"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7888,11 +9987,19 @@
         <v>7</v>
       </c>
       <c r="G268">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H268">
+        <f t="shared" si="19"/>
+        <v>266</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="20"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7912,11 +10019,19 @@
         <v>7</v>
       </c>
       <c r="G269">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H269">
+        <f t="shared" si="19"/>
+        <v>267</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="20"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7936,11 +10051,19 @@
         <v>7</v>
       </c>
       <c r="G270">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H270">
+        <f t="shared" si="19"/>
+        <v>268</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="20"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7960,11 +10083,19 @@
         <v>7</v>
       </c>
       <c r="G271">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H271">
+        <f t="shared" si="19"/>
+        <v>269</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="20"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7984,11 +10115,19 @@
         <v>7</v>
       </c>
       <c r="G272">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H272">
+        <f t="shared" si="19"/>
+        <v>270</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="20"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8008,11 +10147,19 @@
         <v>7</v>
       </c>
       <c r="G273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H273">
+        <f t="shared" si="19"/>
+        <v>271</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="20"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8032,11 +10179,19 @@
         <v>7</v>
       </c>
       <c r="G274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H274">
+        <f t="shared" si="19"/>
+        <v>272</v>
+      </c>
+      <c r="I274">
+        <f t="shared" si="20"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -8056,11 +10211,19 @@
         <v>7</v>
       </c>
       <c r="G275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H275">
+        <f t="shared" si="19"/>
+        <v>273</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="20"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -8080,11 +10243,19 @@
         <v>7</v>
       </c>
       <c r="G276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H276">
+        <f t="shared" si="19"/>
+        <v>274</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="20"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -8104,11 +10275,19 @@
         <v>7</v>
       </c>
       <c r="G277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H277">
+        <f t="shared" si="19"/>
+        <v>275</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="20"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8128,11 +10307,19 @@
         <v>7</v>
       </c>
       <c r="G278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H278">
+        <f t="shared" si="19"/>
+        <v>276</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="20"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8152,11 +10339,19 @@
         <v>7</v>
       </c>
       <c r="G279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H279">
+        <f t="shared" si="19"/>
+        <v>277</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="20"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8176,11 +10371,19 @@
         <v>7</v>
       </c>
       <c r="G280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H280">
+        <f t="shared" si="19"/>
+        <v>278</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="20"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8200,11 +10403,19 @@
         <v>7</v>
       </c>
       <c r="G281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H281">
+        <f t="shared" si="19"/>
+        <v>279</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="20"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8224,11 +10435,19 @@
         <v>7</v>
       </c>
       <c r="G282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H282">
+        <f t="shared" si="19"/>
+        <v>280</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="20"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8248,11 +10467,19 @@
         <v>7</v>
       </c>
       <c r="G283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H283">
+        <f t="shared" si="19"/>
+        <v>281</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="20"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8272,11 +10499,19 @@
         <v>7</v>
       </c>
       <c r="G284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H284">
+        <f t="shared" si="19"/>
+        <v>282</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="20"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8296,11 +10531,19 @@
         <v>7</v>
       </c>
       <c r="G285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H285">
+        <f t="shared" si="19"/>
+        <v>283</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="20"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8311,7 +10554,7 @@
         <v>2021</v>
       </c>
       <c r="D286" t="s">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="E286" t="s">
         <v>332</v>
@@ -8320,11 +10563,19 @@
         <v>7</v>
       </c>
       <c r="G286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H286">
+        <f t="shared" si="19"/>
+        <v>284</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="20"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8344,11 +10595,19 @@
         <v>7</v>
       </c>
       <c r="G287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H287">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="20"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8368,11 +10627,19 @@
         <v>7</v>
       </c>
       <c r="G288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H288">
+        <f t="shared" si="19"/>
+        <v>286</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8392,11 +10659,19 @@
         <v>7</v>
       </c>
       <c r="G289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H289">
+        <f t="shared" si="19"/>
+        <v>287</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="20"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8416,11 +10691,19 @@
         <v>7</v>
       </c>
       <c r="G290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>172</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H290">
+        <f t="shared" si="19"/>
+        <v>288</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="20"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8440,11 +10723,19 @@
         <v>7</v>
       </c>
       <c r="G291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H291">
+        <f t="shared" si="19"/>
+        <v>289</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="20"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8464,11 +10755,19 @@
         <v>7</v>
       </c>
       <c r="G292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H292">
+        <f t="shared" si="19"/>
+        <v>290</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="20"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8488,11 +10787,19 @@
         <v>7</v>
       </c>
       <c r="G293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H293">
+        <f t="shared" si="19"/>
+        <v>291</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="20"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8512,11 +10819,19 @@
         <v>7</v>
       </c>
       <c r="G294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H294">
+        <f t="shared" si="19"/>
+        <v>292</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="20"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8536,11 +10851,19 @@
         <v>7</v>
       </c>
       <c r="G295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H295">
+        <f t="shared" si="19"/>
+        <v>293</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="20"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8560,11 +10883,19 @@
         <v>7</v>
       </c>
       <c r="G296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H296">
+        <f t="shared" si="19"/>
+        <v>294</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="20"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8584,11 +10915,19 @@
         <v>7</v>
       </c>
       <c r="G297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H297">
+        <f t="shared" si="19"/>
+        <v>295</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="20"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8608,11 +10947,19 @@
         <v>7</v>
       </c>
       <c r="G298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H298">
+        <f t="shared" si="19"/>
+        <v>296</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="20"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8632,11 +10979,19 @@
         <v>7</v>
       </c>
       <c r="G299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H299">
+        <f t="shared" si="19"/>
+        <v>297</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="20"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8656,11 +11011,19 @@
         <v>7</v>
       </c>
       <c r="G300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H300">
+        <f t="shared" si="19"/>
+        <v>298</v>
+      </c>
+      <c r="I300">
+        <f t="shared" si="20"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8680,11 +11043,19 @@
         <v>7</v>
       </c>
       <c r="G301">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H301">
+        <f t="shared" si="19"/>
+        <v>299</v>
+      </c>
+      <c r="I301">
+        <f t="shared" si="20"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -8704,11 +11075,19 @@
         <v>7</v>
       </c>
       <c r="G302">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H302">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="20"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
@@ -8728,11 +11107,19 @@
         <v>7</v>
       </c>
       <c r="G303">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H303">
+        <f t="shared" si="19"/>
+        <v>301</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="20"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
@@ -8752,11 +11139,19 @@
         <v>7</v>
       </c>
       <c r="G304">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H304">
+        <f t="shared" si="19"/>
+        <v>302</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="20"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
@@ -8776,11 +11171,18 @@
         <v>7</v>
       </c>
       <c r="G305">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>262</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H305">
+        <f t="shared" si="19"/>
+        <v>303</v>
+      </c>
+      <c r="J305">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
@@ -8800,11 +11202,18 @@
         <v>8</v>
       </c>
       <c r="G306">
-        <f t="shared" ref="G306:G319" si="7">G307+8</f>
+        <f t="shared" ref="G306:G319" si="21">G307+8</f>
         <v>257</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H306">
+        <f>A307</f>
+        <v>306</v>
+      </c>
+      <c r="K306">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
@@ -8824,11 +11233,19 @@
         <v>8</v>
       </c>
       <c r="G307">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>249</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H307">
+        <f>A308</f>
+        <v>307</v>
+      </c>
+      <c r="I307">
+        <f>A306</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -8848,11 +11265,19 @@
         <v>8</v>
       </c>
       <c r="G308">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H308">
+        <f t="shared" ref="H308:H320" si="22">A309</f>
+        <v>308</v>
+      </c>
+      <c r="I308">
+        <f t="shared" ref="I308:I321" si="23">A307</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -8872,11 +11297,19 @@
         <v>8</v>
       </c>
       <c r="G309">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>233</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H309">
+        <f t="shared" si="22"/>
+        <v>309</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="23"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
@@ -8896,11 +11329,19 @@
         <v>8</v>
       </c>
       <c r="G310">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H310">
+        <f t="shared" si="22"/>
+        <v>310</v>
+      </c>
+      <c r="I310">
+        <f t="shared" si="23"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
@@ -8920,11 +11361,19 @@
         <v>8</v>
       </c>
       <c r="G311">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H311">
+        <f t="shared" si="22"/>
+        <v>311</v>
+      </c>
+      <c r="I311">
+        <f t="shared" si="23"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -8944,11 +11393,19 @@
         <v>8</v>
       </c>
       <c r="G312">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H312">
+        <f t="shared" si="22"/>
+        <v>312</v>
+      </c>
+      <c r="I312">
+        <f t="shared" si="23"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8968,11 +11425,19 @@
         <v>8</v>
       </c>
       <c r="G313">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H313">
+        <f t="shared" si="22"/>
+        <v>313</v>
+      </c>
+      <c r="I313">
+        <f t="shared" si="23"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -8992,11 +11457,19 @@
         <v>8</v>
       </c>
       <c r="G314">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H314">
+        <f t="shared" si="22"/>
+        <v>314</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="23"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -9016,11 +11489,19 @@
         <v>8</v>
       </c>
       <c r="G315">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H315">
+        <f t="shared" si="22"/>
+        <v>315</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="23"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
@@ -9040,11 +11521,19 @@
         <v>8</v>
       </c>
       <c r="G316">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>177</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H316">
+        <f t="shared" si="22"/>
+        <v>316</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="23"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -9064,11 +11553,19 @@
         <v>8</v>
       </c>
       <c r="G317">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H317">
+        <f t="shared" si="22"/>
+        <v>317</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="23"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -9088,11 +11585,19 @@
         <v>8</v>
       </c>
       <c r="G318">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H318">
+        <f t="shared" si="22"/>
+        <v>318</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="23"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -9112,11 +11617,19 @@
         <v>8</v>
       </c>
       <c r="G319">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H319">
+        <f t="shared" si="22"/>
+        <v>319</v>
+      </c>
+      <c r="I319">
+        <f t="shared" si="23"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -9139,8 +11652,16 @@
         <f>G321+8</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H320">
+        <f t="shared" si="22"/>
+        <v>320</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="23"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -9160,20 +11681,24 @@
         <f>17*8+1</f>
         <v>137</v>
       </c>
+      <c r="I321">
+        <f t="shared" si="23"/>
+        <v>319</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C242:D266 D242:D303 A242:A293 B244:B245 A267:D1048576 A1:D241 E1:XFD1048576">
+  <conditionalFormatting sqref="A1:E64 E65:E67 A68:E241 C242:E266 E242:E303 A267:E1048576 D1:D1048576 F1:XFD1048576 A65:C67 A242:A293 B244:B245">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="D2:D321">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"landscape"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E321">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"landscape"</formula>
     </cfRule>
   </conditionalFormatting>
